--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_59.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_59.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,268 +488,282 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(10.1, 15.42)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(105.4, 123.26)]</t>
+          <t>[('0:00:03.100000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:09.600000', '0:00:25.040000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(44.18, 61.66)]</t>
+          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.56, 32.44)]</t>
+          <t>[('0:00:31.600000', '0:00:33.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:41.320000', '0:00:46.640000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(109.44, 123.14)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(90.14, 98.78)]</t>
+          <t>[('0:00:14.900000', '0:00:28.900000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:02.360000', '0:00:07.560000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'D/b7', 'G/3']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.358974358974359</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'D']]</t>
+          <t>[['C', 'C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(32.879478, 37.291269)]</t>
+          <t>[['B', 'B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(34.290634, 42.011269)]</t>
+          <t>[('0:01:04.514625', '0:01:32.970680')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:00:09.107074', '0:00:27.450839')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.425</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (32.06, 33.28), (8.2, 12.66)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0.1036789297658863</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[('0:00:02.560000', '0:00:04.800000'), ('0:00:00.300000', '0:00:03.340000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -753,452 +772,392 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4222222222222222</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A', 'E', 'A', 'E'], ['E', 'A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['F/2', 'C', 'F', 'C/3'], ['C', 'F/5', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[('0:00:35.197913', '0:00:46.610521'), ('0:00:43.754467', '0:01:09.517005')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:57.758000', '0:01:05.204000'), ('0:00:05.121000', '0:00:13.333000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1366459627329192</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C', 'Bb/5', 'F'], ['Bb', 'F', 'F'], ['Bb:maj', 'C', 'Bb/5']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'D', 'A'], ['D', 'A', 'A/b7'], ['D', 'E', 'D']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(31.217551, 34.874693), (20.130022, 25.095075), (29.986893, 33.048777)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(89.915646, 97.020952), (26.08399, 30.414512), (148.441541, 156.533695)]</t>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.53125</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A'], ['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G'], ['C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[('0:02:02.780000', '0:02:35.976000'), ('0:03:12.882000', '0:03:47.943000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:28.210155', '0:00:42.831033'), ('0:00:26.391305', '0:00:41.205636')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1357466063348416</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'D', 'G', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#:min', 'D', 'G', 'A']]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(28.230226, 37.483378)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(16.10941, 21.25263)]</t>
+          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02), (32.98, 35.26)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (65.9, 72.44)]</t>
+          <t>[('0:00:01.360000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:14.520000', '0:00:29.100000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(45.82, 48.48)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(55.002834, 59.124376)]</t>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(16.88, 32.5)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.3, 4.8)]</t>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(34.86, 39.7)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(32.98, 35.26)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
